--- a/data/crc_incidence.xlsx
+++ b/data/crc_incidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiewagner/repos/lynch-syndrome/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59980EE-FA3A-024A-836E-DCDC21AF3754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABD332C-AD2C-E045-960B-873F92A94ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15660" windowHeight="18880" firstSheet="2" activeTab="6" xr2:uid="{25B9C491-F18F-444E-B845-27F9AA5AEEFE}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15660" windowHeight="18880" firstSheet="2" activeTab="4" xr2:uid="{25B9C491-F18F-444E-B845-27F9AA5AEEFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="71">
   <si>
     <t>MSH6</t>
   </si>
@@ -240,6 +240,21 @@
   </si>
   <si>
     <t>Cumulative probability of developing [what] by gene</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Number of patients by gene and sex</t>
+  </si>
+  <si>
+    <t>Supplemental Table 1</t>
+  </si>
+  <si>
+    <t>Supplemental Table 2</t>
+  </si>
+  <si>
+    <t>Supplemental Table 7</t>
   </si>
 </sst>
 </file>
@@ -3121,10 +3136,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA60200E-D3F2-1C49-99E9-B87C5E1E5F2D}">
-  <dimension ref="A1:J114"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I120" sqref="I120"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5891,7 +5906,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B113" s="1" t="s">
         <v>3</v>
       </c>
@@ -5917,7 +5932,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
         <v>3</v>
       </c>
@@ -5940,12 +5955,165 @@
         <v>101</v>
       </c>
       <c r="I114" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B119" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>22</v>
+      </c>
+      <c r="D120">
+        <v>1686</v>
+      </c>
+      <c r="H120">
+        <v>101</v>
+      </c>
+      <c r="I120" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>23</v>
+      </c>
+      <c r="D121">
+        <v>1445</v>
+      </c>
+      <c r="H121">
+        <v>101</v>
+      </c>
+      <c r="I121" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" t="s">
+        <v>22</v>
+      </c>
+      <c r="D122">
+        <v>1708</v>
+      </c>
+      <c r="H122">
+        <v>101</v>
+      </c>
+      <c r="I122" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" t="s">
+        <v>23</v>
+      </c>
+      <c r="D123">
+        <v>1463</v>
+      </c>
+      <c r="H123">
+        <v>101</v>
+      </c>
+      <c r="I123" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>0</v>
+      </c>
+      <c r="C124" t="s">
+        <v>22</v>
+      </c>
+      <c r="D124">
+        <v>884</v>
+      </c>
+      <c r="H124">
+        <v>101</v>
+      </c>
+      <c r="I124" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125" t="s">
+        <v>23</v>
+      </c>
+      <c r="D125">
+        <v>765</v>
+      </c>
+      <c r="H125">
+        <v>101</v>
+      </c>
+      <c r="I125" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126">
+        <v>310</v>
+      </c>
+      <c r="H126">
+        <v>101</v>
+      </c>
+      <c r="I126" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127">
+        <v>239</v>
+      </c>
+      <c r="H127">
+        <v>101</v>
+      </c>
+      <c r="I127" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5953,7 +6121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6028215F-D096-8543-BBFD-C0A85A831922}">
   <dimension ref="A1:V194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
@@ -10864,8 +11032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A064A758-C923-174B-BE2C-A36DA2752653}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11211,5 +11379,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>